--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -712,6 +712,9 @@
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="I10" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -738,6 +741,9 @@
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="I11" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -764,6 +770,9 @@
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -790,6 +799,9 @@
       <c r="H13" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="I13" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -816,6 +828,9 @@
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="I14" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -842,6 +857,9 @@
       <c r="H15" s="6" t="n">
         <v>8</v>
       </c>
+      <c r="I15" s="6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -868,6 +886,9 @@
       <c r="H16" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="I16" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -894,6 +915,9 @@
       <c r="H17" s="6" t="n">
         <v>6</v>
       </c>
+      <c r="I17" s="6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -920,6 +944,9 @@
       <c r="H18" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="I18" s="6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -946,6 +973,9 @@
       <c r="H19" s="6" t="n">
         <v>15</v>
       </c>
+      <c r="I19" s="6" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -972,6 +1002,9 @@
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="I20" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -998,6 +1031,9 @@
       <c r="H21" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="I21" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1023,6 +1059,9 @@
       </c>
       <c r="H22" s="6" t="n">
         <v>25</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10:I22"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,6 +512,9 @@
       <c r="I3" s="3" t="n">
         <v>65</v>
       </c>
+      <c r="J3" s="3" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -541,6 +544,9 @@
       <c r="I4" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="J4" s="3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -570,6 +576,9 @@
       <c r="I5" s="3" t="n">
         <v>59</v>
       </c>
+      <c r="J5" s="3" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -599,6 +608,9 @@
       <c r="I6" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="J6" s="3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -628,6 +640,9 @@
       <c r="I7" s="3" t="n">
         <v>7</v>
       </c>
+      <c r="J7" s="3" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -657,6 +672,9 @@
       <c r="I8" s="3" t="n">
         <v>63</v>
       </c>
+      <c r="J8" s="3" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -685,6 +703,9 @@
       </c>
       <c r="I9" s="3" t="n">
         <v>7</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,8 +1636,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1110,6 +1110,9 @@
       <c r="I23" s="8" t="n">
         <v>67</v>
       </c>
+      <c r="J23" s="8" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
@@ -1136,6 +1139,9 @@
       <c r="I24" s="8" t="n">
         <v>32</v>
       </c>
+      <c r="J24" s="8" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
@@ -1162,6 +1168,9 @@
       <c r="I25" s="8" t="n">
         <v>15</v>
       </c>
+      <c r="J25" s="8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
@@ -1188,6 +1197,9 @@
       <c r="I26" s="8" t="n">
         <v>2</v>
       </c>
+      <c r="J26" s="8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
@@ -1214,6 +1226,9 @@
       <c r="I27" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="J27" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
@@ -1240,6 +1255,9 @@
       <c r="I28" s="8" t="n">
         <v>3</v>
       </c>
+      <c r="J28" s="8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
@@ -1266,6 +1284,9 @@
       <c r="I29" s="8" t="n">
         <v>3</v>
       </c>
+      <c r="J29" s="8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
@@ -1292,6 +1313,9 @@
       <c r="I30" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="J30" s="8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
@@ -1318,6 +1342,9 @@
       <c r="I31" s="8" t="n">
         <v>15</v>
       </c>
+      <c r="J31" s="8" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
@@ -1343,6 +1370,9 @@
       </c>
       <c r="I32" s="8" t="n">
         <v>4</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,8 +1666,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Einw</t>
   </si>
@@ -140,39 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Thun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engiadina B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imboden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landquart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maloja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plessur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prättigau/Davos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surselva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viamala</t>
   </si>
 </sst>
 </file>
@@ -227,7 +194,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,13 +216,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE4E5"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -293,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,14 +291,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -363,7 +316,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -415,10 +368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23:J32"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1375,292 +1328,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="10" t="n">
-        <v>8120</v>
-      </c>
-      <c r="C33" s="10" t="n">
-        <v>1841</v>
-      </c>
-      <c r="E33" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="10" t="n">
-        <v>4629</v>
-      </c>
-      <c r="C34" s="10" t="n">
-        <v>1842</v>
-      </c>
-      <c r="E34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="10" t="n">
-        <v>9200</v>
-      </c>
-      <c r="C35" s="10" t="n">
-        <v>1843</v>
-      </c>
-      <c r="E35" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="10" t="n">
-        <v>20970</v>
-      </c>
-      <c r="C36" s="10" t="n">
-        <v>1844</v>
-      </c>
-      <c r="E36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H36" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I36" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="10" t="n">
-        <v>25157</v>
-      </c>
-      <c r="C37" s="10" t="n">
-        <v>1845</v>
-      </c>
-      <c r="E37" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="10" t="n">
-        <v>18259</v>
-      </c>
-      <c r="C38" s="10" t="n">
-        <v>1846</v>
-      </c>
-      <c r="E38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H38" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I38" s="10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="10" t="n">
-        <v>8566</v>
-      </c>
-      <c r="C39" s="10" t="n">
-        <v>1847</v>
-      </c>
-      <c r="E39" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="10" t="n">
-        <v>42315</v>
-      </c>
-      <c r="C40" s="10" t="n">
-        <v>1848</v>
-      </c>
-      <c r="E40" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H40" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" s="10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="10" t="n">
-        <v>26083</v>
-      </c>
-      <c r="C41" s="10" t="n">
-        <v>1849</v>
-      </c>
-      <c r="E41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="10" t="n">
-        <v>21483</v>
-      </c>
-      <c r="C42" s="10" t="n">
-        <v>1850</v>
-      </c>
-      <c r="E42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="10" t="n">
-        <v>13597</v>
-      </c>
-      <c r="C43" s="10" t="n">
-        <v>1851</v>
-      </c>
-      <c r="E43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -689,6 +689,9 @@
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="J10" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -718,6 +721,9 @@
       <c r="I11" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="J11" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -747,6 +753,9 @@
       <c r="I12" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J12" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -776,6 +785,9 @@
       <c r="I13" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J13" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -805,6 +817,9 @@
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="J14" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -834,6 +849,9 @@
       <c r="I15" s="6" t="n">
         <v>8</v>
       </c>
+      <c r="J15" s="6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -863,6 +881,9 @@
       <c r="I16" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="J16" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -892,6 +913,9 @@
       <c r="I17" s="6" t="n">
         <v>6</v>
       </c>
+      <c r="J17" s="6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -921,6 +945,9 @@
       <c r="I18" s="6" t="n">
         <v>6</v>
       </c>
+      <c r="J18" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -950,6 +977,9 @@
       <c r="I19" s="6" t="n">
         <v>22</v>
       </c>
+      <c r="J19" s="6" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -979,6 +1009,9 @@
       <c r="I20" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="J20" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1008,6 +1041,9 @@
       <c r="I21" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="J21" s="6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1036,6 +1072,9 @@
       </c>
       <c r="I22" s="6" t="n">
         <v>20</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Einw</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">7.9. - 13.9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9. - 20.9.</t>
   </si>
   <si>
     <t xml:space="preserve">Woche:</t>
@@ -368,10 +371,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,10 +411,13 @@
       <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -436,10 +442,13 @@
       <c r="J2" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="K2" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>55726</v>
@@ -468,10 +477,13 @@
       <c r="J3" s="3" t="n">
         <v>71</v>
       </c>
+      <c r="K3" s="3" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>43990</v>
@@ -500,10 +512,13 @@
       <c r="J4" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="K4" s="3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>106136</v>
@@ -532,10 +547,13 @@
       <c r="J5" s="3" t="n">
         <v>63</v>
       </c>
+      <c r="K5" s="3" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>18831</v>
@@ -564,10 +582,13 @@
       <c r="J6" s="3" t="n">
         <v>12</v>
       </c>
+      <c r="K6" s="3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>32894</v>
@@ -596,10 +617,13 @@
       <c r="J7" s="3" t="n">
         <v>21</v>
       </c>
+      <c r="K7" s="3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>24337</v>
@@ -628,10 +652,13 @@
       <c r="J8" s="3" t="n">
         <v>53</v>
       </c>
+      <c r="K8" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>36800</v>
@@ -660,10 +687,13 @@
       <c r="J9" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="K9" s="3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>4440</v>
@@ -695,7 +725,7 @@
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>10940</v>
@@ -727,7 +757,7 @@
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>26911</v>
@@ -759,7 +789,7 @@
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>28454</v>
@@ -791,7 +821,7 @@
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>12355</v>
@@ -823,7 +853,7 @@
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>49230</v>
@@ -855,7 +885,7 @@
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>10862</v>
@@ -887,7 +917,7 @@
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>47753</v>
@@ -919,7 +949,7 @@
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>28906</v>
@@ -951,7 +981,7 @@
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>47983</v>
@@ -983,7 +1013,7 @@
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>15261</v>
@@ -1015,7 +1045,7 @@
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>13821</v>
@@ -1047,7 +1077,7 @@
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>47039</v>
@@ -1079,7 +1109,7 @@
     </row>
     <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>414658</v>
@@ -1108,7 +1138,7 @@
     </row>
     <row r="24" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="8" t="n">
         <v>101313</v>
@@ -1137,7 +1167,7 @@
     </row>
     <row r="25" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="8" t="n">
         <v>97218</v>
@@ -1166,7 +1196,7 @@
     </row>
     <row r="26" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8" t="n">
         <v>40375</v>
@@ -1195,7 +1225,7 @@
     </row>
     <row r="27" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="8" t="n">
         <v>47387</v>
@@ -1224,7 +1254,7 @@
     </row>
     <row r="28" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="8" t="n">
         <v>53721</v>
@@ -1253,7 +1283,7 @@
     </row>
     <row r="29" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="8" t="n">
         <v>81759</v>
@@ -1282,7 +1312,7 @@
     </row>
     <row r="30" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="8" t="n">
         <v>16588</v>
@@ -1311,7 +1341,7 @@
     </row>
     <row r="31" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="8" t="n">
         <v>74467</v>
@@ -1340,7 +1370,7 @@
     </row>
     <row r="32" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="8" t="n">
         <v>107491</v>

--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="K33" activeCellId="0" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1135,6 +1135,9 @@
       <c r="J23" s="8" t="n">
         <v>65</v>
       </c>
+      <c r="K23" s="8" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
@@ -1164,6 +1167,9 @@
       <c r="J24" s="8" t="n">
         <v>47</v>
       </c>
+      <c r="K24" s="8" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="25" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
@@ -1193,6 +1199,9 @@
       <c r="J25" s="8" t="n">
         <v>12</v>
       </c>
+      <c r="K25" s="8" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
@@ -1222,6 +1231,9 @@
       <c r="J26" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="K26" s="8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
@@ -1251,6 +1263,9 @@
       <c r="J27" s="8" t="n">
         <v>3</v>
       </c>
+      <c r="K27" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
@@ -1280,6 +1295,9 @@
       <c r="J28" s="8" t="n">
         <v>6</v>
       </c>
+      <c r="K28" s="8" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
@@ -1309,6 +1327,9 @@
       <c r="J29" s="8" t="n">
         <v>7</v>
       </c>
+      <c r="K29" s="8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
@@ -1338,6 +1359,9 @@
       <c r="J30" s="8" t="n">
         <v>5</v>
       </c>
+      <c r="K30" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
@@ -1367,6 +1391,9 @@
       <c r="J31" s="8" t="n">
         <v>39</v>
       </c>
+      <c r="K31" s="8" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
@@ -1395,6 +1422,9 @@
       </c>
       <c r="J32" s="8" t="n">
         <v>15</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1402,8 +1432,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K33" activeCellId="0" sqref="K33"/>
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -722,6 +722,9 @@
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="K10" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -754,6 +757,9 @@
       <c r="J11" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="K11" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -786,6 +792,9 @@
       <c r="J12" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="K12" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -818,6 +827,9 @@
       <c r="J13" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="K13" s="6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -850,6 +862,9 @@
       <c r="J14" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="K14" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -882,6 +897,9 @@
       <c r="J15" s="6" t="n">
         <v>7</v>
       </c>
+      <c r="K15" s="6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -914,6 +932,9 @@
       <c r="J16" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="K16" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -946,6 +967,9 @@
       <c r="J17" s="6" t="n">
         <v>8</v>
       </c>
+      <c r="K17" s="6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -978,6 +1002,9 @@
       <c r="J18" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="K18" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -1010,6 +1037,9 @@
       <c r="J19" s="6" t="n">
         <v>22</v>
       </c>
+      <c r="K19" s="6" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1042,6 +1072,9 @@
       <c r="J20" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="K20" s="6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1074,6 +1107,9 @@
       <c r="J21" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="K21" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1105,6 +1141,9 @@
       </c>
       <c r="J22" s="6" t="n">
         <v>10</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,8 +1471,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Einw</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.9. - 20.9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9. - 28.9.</t>
   </si>
   <si>
     <t xml:space="preserve">Woche:</t>
@@ -371,10 +374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -414,10 +417,13 @@
       <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -445,10 +451,13 @@
       <c r="K2" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="L2" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>55726</v>
@@ -480,10 +489,13 @@
       <c r="K3" s="3" t="n">
         <v>35</v>
       </c>
+      <c r="L3" s="3" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>43990</v>
@@ -515,10 +527,13 @@
       <c r="K4" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="L4" s="3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>106136</v>
@@ -550,10 +565,13 @@
       <c r="K5" s="3" t="n">
         <v>59</v>
       </c>
+      <c r="L5" s="3" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>18831</v>
@@ -585,10 +603,13 @@
       <c r="K6" s="3" t="n">
         <v>9</v>
       </c>
+      <c r="L6" s="3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>32894</v>
@@ -620,10 +641,13 @@
       <c r="K7" s="3" t="n">
         <v>13</v>
       </c>
+      <c r="L7" s="3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>24337</v>
@@ -655,10 +679,13 @@
       <c r="K8" s="3" t="n">
         <v>30</v>
       </c>
+      <c r="L8" s="3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>36800</v>
@@ -690,10 +717,13 @@
       <c r="K9" s="3" t="n">
         <v>8</v>
       </c>
+      <c r="L9" s="3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>4440</v>
@@ -728,7 +758,7 @@
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>10940</v>
@@ -763,7 +793,7 @@
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>26911</v>
@@ -798,7 +828,7 @@
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>28454</v>
@@ -833,7 +863,7 @@
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>12355</v>
@@ -868,7 +898,7 @@
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>49230</v>
@@ -903,7 +933,7 @@
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>10862</v>
@@ -938,7 +968,7 @@
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>47753</v>
@@ -973,7 +1003,7 @@
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>28906</v>
@@ -1008,7 +1038,7 @@
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>47983</v>
@@ -1043,7 +1073,7 @@
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>15261</v>
@@ -1078,7 +1108,7 @@
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>13821</v>
@@ -1113,7 +1143,7 @@
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>47039</v>
@@ -1148,7 +1178,7 @@
     </row>
     <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>414658</v>
@@ -1180,7 +1210,7 @@
     </row>
     <row r="24" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="8" t="n">
         <v>101313</v>
@@ -1212,7 +1242,7 @@
     </row>
     <row r="25" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8" t="n">
         <v>97218</v>
@@ -1244,7 +1274,7 @@
     </row>
     <row r="26" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="8" t="n">
         <v>40375</v>
@@ -1276,7 +1306,7 @@
     </row>
     <row r="27" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="8" t="n">
         <v>47387</v>
@@ -1308,7 +1338,7 @@
     </row>
     <row r="28" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="8" t="n">
         <v>53721</v>
@@ -1340,7 +1370,7 @@
     </row>
     <row r="29" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="8" t="n">
         <v>81759</v>
@@ -1372,7 +1402,7 @@
     </row>
     <row r="30" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="8" t="n">
         <v>16588</v>
@@ -1404,7 +1434,7 @@
     </row>
     <row r="31" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="8" t="n">
         <v>74467</v>
@@ -1436,7 +1466,7 @@
     </row>
     <row r="32" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="8" t="n">
         <v>107491</v>
@@ -1471,8 +1501,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">14.9. - 20.9.</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9. - 28.9.</t>
+    <t xml:space="preserve">21.9. - 27.9.</t>
   </si>
   <si>
     <t xml:space="preserve">Woche:</t>
@@ -377,7 +377,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,15 +483,6 @@
       <c r="I3" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>71</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -521,15 +512,6 @@
       <c r="I4" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -559,15 +541,6 @@
       <c r="I5" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <v>63</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>59</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -597,15 +570,6 @@
       <c r="I6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J6" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -635,15 +599,6 @@
       <c r="I7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -673,15 +628,6 @@
       <c r="I8" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="J8" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -710,15 +656,6 @@
       </c>
       <c r="I9" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,8 +1438,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="topLeft" activeCell="K39" activeCellId="0" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1144,6 +1144,9 @@
       <c r="K23" s="8" t="n">
         <v>98</v>
       </c>
+      <c r="L23" s="8" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="24" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
@@ -1176,6 +1179,9 @@
       <c r="K24" s="8" t="n">
         <v>88</v>
       </c>
+      <c r="L24" s="8" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
@@ -1208,6 +1214,9 @@
       <c r="K25" s="8" t="n">
         <v>29</v>
       </c>
+      <c r="L25" s="8" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
@@ -1240,6 +1249,9 @@
       <c r="K26" s="8" t="n">
         <v>7</v>
       </c>
+      <c r="L26" s="8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
@@ -1272,6 +1284,9 @@
       <c r="K27" s="8" t="n">
         <v>0</v>
       </c>
+      <c r="L27" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
@@ -1304,6 +1319,9 @@
       <c r="K28" s="8" t="n">
         <v>27</v>
       </c>
+      <c r="L28" s="8" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
@@ -1336,6 +1354,9 @@
       <c r="K29" s="8" t="n">
         <v>8</v>
       </c>
+      <c r="L29" s="8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
@@ -1368,6 +1389,9 @@
       <c r="K30" s="8" t="n">
         <v>3</v>
       </c>
+      <c r="L30" s="8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
@@ -1400,6 +1424,9 @@
       <c r="K31" s="8" t="n">
         <v>34</v>
       </c>
+      <c r="L31" s="8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
@@ -1431,6 +1458,9 @@
       </c>
       <c r="K32" s="8" t="n">
         <v>20</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K39" activeCellId="0" sqref="K39"/>
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -692,6 +692,9 @@
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="L10" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -727,6 +730,9 @@
       <c r="K11" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="L11" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -762,6 +768,9 @@
       <c r="K12" s="6" t="n">
         <v>3</v>
       </c>
+      <c r="L12" s="6" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -797,6 +806,9 @@
       <c r="K13" s="6" t="n">
         <v>15</v>
       </c>
+      <c r="L13" s="6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -832,6 +844,9 @@
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="L14" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -867,6 +882,9 @@
       <c r="K15" s="6" t="n">
         <v>7</v>
       </c>
+      <c r="L15" s="6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -902,6 +920,9 @@
       <c r="K16" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="L16" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -937,6 +958,9 @@
       <c r="K17" s="6" t="n">
         <v>15</v>
       </c>
+      <c r="L17" s="6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -972,6 +996,9 @@
       <c r="K18" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="L18" s="6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -1007,6 +1034,9 @@
       <c r="K19" s="6" t="n">
         <v>14</v>
       </c>
+      <c r="L19" s="6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1042,6 +1072,9 @@
       <c r="K20" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="L20" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1077,6 +1110,9 @@
       <c r="K21" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="L21" s="6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1111,6 +1147,9 @@
       </c>
       <c r="K22" s="6" t="n">
         <v>32</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -374,10 +374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,6 +454,9 @@
       <c r="L2" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="M2" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -695,6 +698,9 @@
       <c r="L10" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="M10" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -733,6 +739,9 @@
       <c r="L11" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="M11" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -771,6 +780,9 @@
       <c r="L12" s="6" t="n">
         <v>9</v>
       </c>
+      <c r="M12" s="6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -809,6 +821,9 @@
       <c r="L13" s="6" t="n">
         <v>6</v>
       </c>
+      <c r="M13" s="6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -847,6 +862,9 @@
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="M14" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -885,6 +903,9 @@
       <c r="L15" s="6" t="n">
         <v>7</v>
       </c>
+      <c r="M15" s="6" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -923,6 +944,9 @@
       <c r="L16" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="M16" s="6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -961,6 +985,9 @@
       <c r="L17" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="M17" s="6" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -999,6 +1026,9 @@
       <c r="L18" s="6" t="n">
         <v>8</v>
       </c>
+      <c r="M18" s="6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -1037,6 +1067,9 @@
       <c r="L19" s="6" t="n">
         <v>15</v>
       </c>
+      <c r="M19" s="6" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1075,6 +1108,9 @@
       <c r="L20" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="M20" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1113,6 +1149,9 @@
       <c r="L21" s="6" t="n">
         <v>6</v>
       </c>
+      <c r="M21" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1150,6 +1189,9 @@
       </c>
       <c r="L22" s="6" t="n">
         <v>16</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,8 +1549,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Cases per Week" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cases per Week AG" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t xml:space="preserve">Einw</t>
   </si>
@@ -146,16 +147,50 @@
   </si>
   <si>
     <t xml:space="preserve">Thun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zofingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenzburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aarau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremgarten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheinfelden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brugg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurzach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -199,8 +234,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +272,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE4E5"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF37B70"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -260,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,6 +352,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -329,7 +408,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFF37B70"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FF000080"/>
@@ -374,10 +453,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -457,6 +536,9 @@
       <c r="M2" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="N2" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -1549,8 +1631,364 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="n">
+        <v>44106</v>
+      </c>
+      <c r="E1" s="9" t="n">
+        <v>44113</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+    </row>
+    <row r="3" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>145696</v>
+      </c>
+      <c r="C3" s="14" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+    </row>
+    <row r="4" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>37170</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+    </row>
+    <row r="5" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>73136</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+    </row>
+    <row r="6" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>64792</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+    </row>
+    <row r="7" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>79702</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+    </row>
+    <row r="8" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>78745</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+    </row>
+    <row r="9" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>47926</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+    </row>
+    <row r="10" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="13" t="n">
+        <v>42412</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+    </row>
+    <row r="11" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>51814</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>1904</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+    </row>
+    <row r="12" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="13" t="n">
+        <v>33035</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+    </row>
+    <row r="13" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>34650</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>1911</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -315,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,14 +353,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,7 +448,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+      <selection pane="topLeft" activeCell="N23" activeCellId="0" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -783,6 +775,9 @@
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="N10" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -824,6 +819,9 @@
       <c r="M11" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="N11" s="6" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -865,6 +863,9 @@
       <c r="M12" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="N12" s="6" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -906,6 +907,9 @@
       <c r="M13" s="6" t="n">
         <v>5</v>
       </c>
+      <c r="N13" s="6" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -947,6 +951,9 @@
       <c r="M14" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="N14" s="6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -988,6 +995,9 @@
       <c r="M15" s="6" t="n">
         <v>33</v>
       </c>
+      <c r="N15" s="6" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -1029,6 +1039,9 @@
       <c r="M16" s="6" t="n">
         <v>6</v>
       </c>
+      <c r="N16" s="6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -1070,6 +1083,9 @@
       <c r="M17" s="6" t="n">
         <v>21</v>
       </c>
+      <c r="N17" s="6" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -1111,6 +1127,9 @@
       <c r="M18" s="6" t="n">
         <v>12</v>
       </c>
+      <c r="N18" s="6" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -1152,6 +1171,9 @@
       <c r="M19" s="6" t="n">
         <v>16</v>
       </c>
+      <c r="N19" s="6" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1193,6 +1215,9 @@
       <c r="M20" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="N20" s="6" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1234,6 +1259,9 @@
       <c r="M21" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="N21" s="6" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1274,6 +1302,9 @@
       </c>
       <c r="M22" s="6" t="n">
         <v>31</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,8 +1662,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1666,13 +1697,6 @@
       <c r="E1" s="9" t="n">
         <v>44113</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1686,299 +1710,292 @@
       <c r="E2" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
     </row>
-    <row r="3" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="11" t="n">
         <v>145696</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="12" t="n">
         <v>1902</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
     </row>
-    <row r="4" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="11" t="n">
         <v>37170</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="12" t="n">
         <v>1908</v>
       </c>
-      <c r="D4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="n">
+      <c r="D4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
     </row>
-    <row r="5" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="11" t="n">
         <v>73136</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="12" t="n">
         <v>1910</v>
       </c>
-      <c r="D5" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13" t="n">
+      <c r="D5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
     </row>
-    <row r="6" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="11" t="n">
         <v>64792</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="12" t="n">
         <v>1907</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
     </row>
-    <row r="7" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="11" t="n">
         <v>79702</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="12" t="n">
         <v>1901</v>
       </c>
-      <c r="D7" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="13" t="n">
+      <c r="D7" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
     </row>
-    <row r="8" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="11" t="n">
         <v>78745</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="12" t="n">
         <v>1903</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
     </row>
-    <row r="9" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="11" t="n">
         <v>47926</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="12" t="n">
         <v>1909</v>
       </c>
-      <c r="D9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13" t="n">
+      <c r="D9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
     </row>
-    <row r="10" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="11" t="n">
         <v>42412</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="12" t="n">
         <v>1905</v>
       </c>
-      <c r="D10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13" t="n">
+      <c r="D10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
     </row>
-    <row r="11" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+    <row r="11" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="11" t="n">
         <v>51814</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="12" t="n">
         <v>1904</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
     </row>
-    <row r="12" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="11" t="n">
         <v>33035</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="12" t="n">
         <v>1906</v>
       </c>
-      <c r="D12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13" t="n">
+      <c r="D12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
     </row>
-    <row r="13" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="11" t="n">
         <v>34650</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="12" t="n">
         <v>1911</v>
       </c>
-      <c r="D13" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="13" t="n">
+      <c r="D13" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
     </row>
@@ -1987,8 +2004,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -218,7 +218,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -414,12 +414,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -489,13 +489,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O23" activeCellId="0" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
   </cols>
@@ -572,6 +572,9 @@
       <c r="N2" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="O2" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -819,6 +822,9 @@
       <c r="N10" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="O10" s="6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -863,6 +869,9 @@
       <c r="N11" s="6" t="n">
         <v>9</v>
       </c>
+      <c r="O11" s="6" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -907,6 +916,9 @@
       <c r="N12" s="6" t="n">
         <v>23</v>
       </c>
+      <c r="O12" s="6" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -951,6 +963,9 @@
       <c r="N13" s="6" t="n">
         <v>24</v>
       </c>
+      <c r="O13" s="6" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -995,6 +1010,9 @@
       <c r="N14" s="6" t="n">
         <v>10</v>
       </c>
+      <c r="O14" s="6" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -1039,6 +1057,9 @@
       <c r="N15" s="6" t="n">
         <v>102</v>
       </c>
+      <c r="O15" s="6" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="16" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -1083,6 +1104,9 @@
       <c r="N16" s="6" t="n">
         <v>10</v>
       </c>
+      <c r="O16" s="6" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -1127,6 +1151,9 @@
       <c r="N17" s="6" t="n">
         <v>96</v>
       </c>
+      <c r="O17" s="6" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -1171,6 +1198,9 @@
       <c r="N18" s="6" t="n">
         <v>43</v>
       </c>
+      <c r="O18" s="6" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="19" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -1215,6 +1245,9 @@
       <c r="N19" s="6" t="n">
         <v>59</v>
       </c>
+      <c r="O19" s="6" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="20" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1259,6 +1292,9 @@
       <c r="N20" s="6" t="n">
         <v>25</v>
       </c>
+      <c r="O20" s="6" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1303,6 +1339,9 @@
       <c r="N21" s="6" t="n">
         <v>34</v>
       </c>
+      <c r="O21" s="6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1346,6 +1385,9 @@
       </c>
       <c r="N22" s="6" t="n">
         <v>65</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,8 +1975,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1950,7 +1992,7 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -2169,8 +2211,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -218,7 +218,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -414,12 +414,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -489,15 +489,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O23" activeCellId="0" sqref="O23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,6 +826,9 @@
       <c r="O10" s="6" t="n">
         <v>7</v>
       </c>
+      <c r="P10" s="6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -872,6 +876,9 @@
       <c r="O11" s="6" t="n">
         <v>33</v>
       </c>
+      <c r="P11" s="6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -919,6 +926,9 @@
       <c r="O12" s="6" t="n">
         <v>78</v>
       </c>
+      <c r="P12" s="6" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -966,6 +976,9 @@
       <c r="O13" s="6" t="n">
         <v>70</v>
       </c>
+      <c r="P13" s="6" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="14" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -1013,6 +1026,9 @@
       <c r="O14" s="6" t="n">
         <v>27</v>
       </c>
+      <c r="P14" s="6" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -1060,6 +1076,9 @@
       <c r="O15" s="6" t="n">
         <v>385</v>
       </c>
+      <c r="P15" s="6" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="16" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -1107,6 +1126,9 @@
       <c r="O16" s="6" t="n">
         <v>46</v>
       </c>
+      <c r="P16" s="6" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="17" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -1154,6 +1176,9 @@
       <c r="O17" s="6" t="n">
         <v>293</v>
       </c>
+      <c r="P17" s="6" t="n">
+        <v>665</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -1201,6 +1226,9 @@
       <c r="O18" s="6" t="n">
         <v>215</v>
       </c>
+      <c r="P18" s="6" t="n">
+        <v>480</v>
+      </c>
     </row>
     <row r="19" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -1248,6 +1276,9 @@
       <c r="O19" s="6" t="n">
         <v>378</v>
       </c>
+      <c r="P19" s="6" t="n">
+        <v>722</v>
+      </c>
     </row>
     <row r="20" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1295,6 +1326,9 @@
       <c r="O20" s="6" t="n">
         <v>70</v>
       </c>
+      <c r="P20" s="6" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1342,6 +1376,9 @@
       <c r="O21" s="6" t="n">
         <v>80</v>
       </c>
+      <c r="P21" s="6" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1388,6 +1425,9 @@
       </c>
       <c r="O22" s="6" t="n">
         <v>208</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>609</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,7 +2032,10 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.68"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">

--- a/measuremeterdata/datasources/cases_bezirke.xlsx
+++ b/measuremeterdata/datasources/cases_bezirke.xlsx
@@ -491,14 +491,14 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,6 +575,9 @@
       </c>
       <c r="O2" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2037,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
